--- a/data.xlsx
+++ b/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4020" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="237">
   <si>
     <t>Type</t>
   </si>
@@ -670,6 +670,69 @@
   </si>
   <si>
     <t>2--90</t>
+  </si>
+  <si>
+    <t>CorrectResults</t>
+  </si>
+  <si>
+    <t>SerineDivider</t>
+  </si>
+  <si>
+    <t>HistidineDivider</t>
+  </si>
+  <si>
+    <t>GlycineDivider</t>
+  </si>
+  <si>
+    <t>ThreonineDivider</t>
+  </si>
+  <si>
+    <t>CitrulineDivider</t>
+  </si>
+  <si>
+    <t>ArginineDivider</t>
+  </si>
+  <si>
+    <t>TaurineDivider</t>
+  </si>
+  <si>
+    <t>AlanineDivider</t>
+  </si>
+  <si>
+    <t>TyrosineDivider</t>
+  </si>
+  <si>
+    <t>CystineDivider</t>
+  </si>
+  <si>
+    <t>ValineDivider</t>
+  </si>
+  <si>
+    <t>MethionineDivider</t>
+  </si>
+  <si>
+    <t>PhenylalanineDivider</t>
+  </si>
+  <si>
+    <t>IsoleucineDivider</t>
+  </si>
+  <si>
+    <t>LeucineDivider</t>
+  </si>
+  <si>
+    <t>LysineDivider</t>
+  </si>
+  <si>
+    <t>ProlineDivider</t>
+  </si>
+  <si>
+    <t>Aspartic acidDivider</t>
+  </si>
+  <si>
+    <t>Glutamic acidDivider</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -1080,18 +1143,18 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="10" customWidth="1"/>
-    <col min="4" max="5" width="15.33203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="10" customWidth="1"/>
+    <col min="4" max="5" width="15.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1114,7 +1177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>191</v>
       </c>
@@ -1134,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>192</v>
       </c>
@@ -1183,19 +1246,19 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1210,15 +1273,15 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1226,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>8</v>
       </c>
@@ -1261,7 +1324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1299,7 +1362,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1337,7 +1400,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1375,7 +1438,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1413,7 +1476,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -1451,7 +1514,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -1489,7 +1552,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>200</v>
       </c>
@@ -1527,7 +1590,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -1565,7 +1628,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>204</v>
       </c>
@@ -1603,7 +1666,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -1641,7 +1704,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -1679,7 +1742,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -1717,7 +1780,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -1755,7 +1818,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -1793,7 +1856,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -1831,7 +1894,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>153</v>
       </c>
@@ -1869,7 +1932,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>158</v>
       </c>
@@ -1907,7 +1970,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>167</v>
       </c>
@@ -1945,7 +2008,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>179</v>
       </c>
@@ -1991,18 +2054,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>197</v>
       </c>
@@ -2010,11 +2073,171 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>199</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22">
         <v>1</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -732,7 +732,7 @@
     <t>Glutamic acidDivider</t>
   </si>
   <si>
-    <t>yes</t>
+    <t>no</t>
   </si>
 </sst>
 </file>
